--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Bmp4-Bmpr1b.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Bmp4-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.10527922474195</v>
+        <v>4.504599666666667</v>
       </c>
       <c r="H2">
-        <v>7.10527922474195</v>
+        <v>13.513799</v>
       </c>
       <c r="I2">
-        <v>0.7461567349632444</v>
+        <v>0.2870666703033801</v>
       </c>
       <c r="J2">
-        <v>0.7461567349632444</v>
+        <v>0.2870666703033801</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.47017041875691</v>
+        <v>3.510190333333334</v>
       </c>
       <c r="N2">
-        <v>3.47017041875691</v>
+        <v>10.530571</v>
       </c>
       <c r="O2">
-        <v>0.8566873036830955</v>
+        <v>0.8478537661184122</v>
       </c>
       <c r="P2">
-        <v>0.8566873036830955</v>
+        <v>0.8478537661184122</v>
       </c>
       <c r="Q2">
-        <v>24.65652978270754</v>
+        <v>15.81200220546989</v>
       </c>
       <c r="R2">
-        <v>24.65652978270754</v>
+        <v>142.308019849229</v>
       </c>
       <c r="S2">
-        <v>0.639223001400644</v>
+        <v>0.2433905575437934</v>
       </c>
       <c r="T2">
-        <v>0.639223001400644</v>
+        <v>0.2433905575437934</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7.10527922474195</v>
+        <v>4.504599666666667</v>
       </c>
       <c r="H3">
-        <v>7.10527922474195</v>
+        <v>13.513799</v>
       </c>
       <c r="I3">
-        <v>0.7461567349632444</v>
+        <v>0.2870666703033801</v>
       </c>
       <c r="J3">
-        <v>0.7461567349632444</v>
+        <v>0.2870666703033801</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.580514590624985</v>
+        <v>0.629899</v>
       </c>
       <c r="N3">
-        <v>0.580514590624985</v>
+        <v>1.889697</v>
       </c>
       <c r="O3">
-        <v>0.1433126963169045</v>
+        <v>0.1521462338815877</v>
       </c>
       <c r="P3">
-        <v>0.1433126963169045</v>
+        <v>0.1521462338815877</v>
       </c>
       <c r="Q3">
-        <v>4.124718260427284</v>
+        <v>2.837442825433667</v>
       </c>
       <c r="R3">
-        <v>4.124718260427284</v>
+        <v>25.536985428903</v>
       </c>
       <c r="S3">
-        <v>0.1069337335626005</v>
+        <v>0.0436761127595867</v>
       </c>
       <c r="T3">
-        <v>0.1069337335626005</v>
+        <v>0.04367611275958671</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -640,61 +643,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.41722307511594</v>
+        <v>7.480073</v>
       </c>
       <c r="H4">
-        <v>2.41722307511594</v>
+        <v>22.440219</v>
       </c>
       <c r="I4">
-        <v>0.2538432650367555</v>
+        <v>0.476686011772755</v>
       </c>
       <c r="J4">
-        <v>0.2538432650367555</v>
+        <v>0.476686011772755</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.47017041875691</v>
+        <v>3.510190333333334</v>
       </c>
       <c r="N4">
-        <v>3.47017041875691</v>
+        <v>10.530571</v>
       </c>
       <c r="O4">
-        <v>0.8566873036830955</v>
+        <v>0.8478537661184122</v>
       </c>
       <c r="P4">
-        <v>0.8566873036830955</v>
+        <v>0.8478537661184122</v>
       </c>
       <c r="Q4">
-        <v>8.388176010803948</v>
+        <v>26.25647993722767</v>
       </c>
       <c r="R4">
-        <v>8.388176010803948</v>
+        <v>236.308319435049</v>
       </c>
       <c r="S4">
-        <v>0.2174643022824514</v>
+        <v>0.4041600303374961</v>
       </c>
       <c r="T4">
-        <v>0.2174643022824514</v>
+        <v>0.4041600303374961</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +705,185 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>7.480073</v>
+      </c>
+      <c r="H5">
+        <v>22.440219</v>
+      </c>
+      <c r="I5">
+        <v>0.476686011772755</v>
+      </c>
+      <c r="J5">
+        <v>0.476686011772755</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.629899</v>
+      </c>
+      <c r="N5">
+        <v>1.889697</v>
+      </c>
+      <c r="O5">
+        <v>0.1521462338815877</v>
+      </c>
+      <c r="P5">
+        <v>0.1521462338815877</v>
+      </c>
+      <c r="Q5">
+        <v>4.711690502627</v>
+      </c>
+      <c r="R5">
+        <v>42.405214523643</v>
+      </c>
+      <c r="S5">
+        <v>0.07252598143525886</v>
+      </c>
+      <c r="T5">
+        <v>0.07252598143525887</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.41722307511594</v>
-      </c>
-      <c r="H5">
-        <v>2.41722307511594</v>
-      </c>
-      <c r="I5">
-        <v>0.2538432650367555</v>
-      </c>
-      <c r="J5">
-        <v>0.2538432650367555</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.580514590624985</v>
-      </c>
-      <c r="N5">
-        <v>0.580514590624985</v>
-      </c>
-      <c r="O5">
-        <v>0.1433126963169045</v>
-      </c>
-      <c r="P5">
-        <v>0.1433126963169045</v>
-      </c>
-      <c r="Q5">
-        <v>1.403233263900197</v>
-      </c>
-      <c r="R5">
-        <v>1.403233263900197</v>
-      </c>
-      <c r="S5">
-        <v>0.03637896275430404</v>
-      </c>
-      <c r="T5">
-        <v>0.03637896275430404</v>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.707151333333333</v>
+      </c>
+      <c r="H6">
+        <v>11.121454</v>
+      </c>
+      <c r="I6">
+        <v>0.2362473179238649</v>
+      </c>
+      <c r="J6">
+        <v>0.2362473179238649</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.510190333333334</v>
+      </c>
+      <c r="N6">
+        <v>10.530571</v>
+      </c>
+      <c r="O6">
+        <v>0.8478537661184122</v>
+      </c>
+      <c r="P6">
+        <v>0.8478537661184122</v>
+      </c>
+      <c r="Q6">
+        <v>13.01280677447045</v>
+      </c>
+      <c r="R6">
+        <v>117.115260970234</v>
+      </c>
+      <c r="S6">
+        <v>0.2003031782371227</v>
+      </c>
+      <c r="T6">
+        <v>0.2003031782371227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.707151333333333</v>
+      </c>
+      <c r="H7">
+        <v>11.121454</v>
+      </c>
+      <c r="I7">
+        <v>0.2362473179238649</v>
+      </c>
+      <c r="J7">
+        <v>0.2362473179238649</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.629899</v>
+      </c>
+      <c r="N7">
+        <v>1.889697</v>
+      </c>
+      <c r="O7">
+        <v>0.1521462338815877</v>
+      </c>
+      <c r="P7">
+        <v>0.1521462338815877</v>
+      </c>
+      <c r="Q7">
+        <v>2.335130917715333</v>
+      </c>
+      <c r="R7">
+        <v>21.016178259438</v>
+      </c>
+      <c r="S7">
+        <v>0.03594413968674216</v>
+      </c>
+      <c r="T7">
+        <v>0.03594413968674216</v>
       </c>
     </row>
   </sheetData>
